--- a/Kobita school Class 6 Admission Info.xlsx
+++ b/Kobita school Class 6 Admission Info.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOURAV TRADERS\Desktop\New folder\Study-Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723EE235-E35C-423A-AD53-0AB77B92D2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B540D6-7122-4A52-9BE2-22955D8EEDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="gunjon" sheetId="4" r:id="rId1"/>
+    <sheet name="anjoli" sheetId="8" r:id="rId1"/>
+    <sheet name="bisal" sheetId="6" r:id="rId2"/>
+    <sheet name="Ria moni" sheetId="5" r:id="rId3"/>
+    <sheet name="Ripon" sheetId="7" r:id="rId4"/>
+    <sheet name="gunjon" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
   <si>
     <t>নাম</t>
   </si>
@@ -99,6 +103,87 @@
   </si>
   <si>
     <t>Prone Community Primary School</t>
+  </si>
+  <si>
+    <t>Ripon Chandro Roy</t>
+  </si>
+  <si>
+    <t>31-05-2015</t>
+  </si>
+  <si>
+    <t>20157316431043106</t>
+  </si>
+  <si>
+    <t>01873396263</t>
+  </si>
+  <si>
+    <t>Sumanth Chandro roy</t>
+  </si>
+  <si>
+    <t>9562222860</t>
+  </si>
+  <si>
+    <t>Sumitra</t>
+  </si>
+  <si>
+    <t>5524450003</t>
+  </si>
+  <si>
+    <t>Kanial khata baniya para</t>
+  </si>
+  <si>
+    <t>Mst Riya Moni</t>
+  </si>
+  <si>
+    <t>28-03-2013</t>
+  </si>
+  <si>
+    <t>20137316431038599</t>
+  </si>
+  <si>
+    <t>01737082418</t>
+  </si>
+  <si>
+    <t>Md. Azinur Rahman</t>
+  </si>
+  <si>
+    <t>1907648040</t>
+  </si>
+  <si>
+    <t>sarmin</t>
+  </si>
+  <si>
+    <t>6460123679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanial khata </t>
+  </si>
+  <si>
+    <t>Sreemoti Anjoli Rani ray Khushi</t>
+  </si>
+  <si>
+    <t>15-10-2015</t>
+  </si>
+  <si>
+    <t>20157316431036135</t>
+  </si>
+  <si>
+    <t>01785653041</t>
+  </si>
+  <si>
+    <t>bimol chandro</t>
+  </si>
+  <si>
+    <t>19947316431000244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sreemoti dolly Rani ray </t>
+  </si>
+  <si>
+    <t>1491503601</t>
+  </si>
+  <si>
+    <t>Kanial khata</t>
   </si>
 </sst>
 </file>
@@ -440,13 +525,405 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD45726-2BF5-4B47-813F-64B697A3BAA3}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{935672F3-E3CA-4916-8F12-300591A861CA}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC69193-9F6E-4D9A-8BEB-1BBAF64A53A6}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43232488-93DA-4779-98A2-61A2C9EB8372}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B2F207B-2163-410F-A4C3-DAF2B172F230}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>

--- a/Kobita school Class 6 Admission Info.xlsx
+++ b/Kobita school Class 6 Admission Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOURAV TRADERS\Desktop\New folder\Study-Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B540D6-7122-4A52-9BE2-22955D8EEDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654D565E-97A2-4F9E-ACAA-487ECD6F2297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="10920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="anjoli" sheetId="8" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="55">
   <si>
     <t>নাম</t>
   </si>
@@ -184,6 +184,30 @@
   </si>
   <si>
     <t>Kanial khata</t>
+  </si>
+  <si>
+    <t>Sree Bishal chandra</t>
+  </si>
+  <si>
+    <t>28-04-2012</t>
+  </si>
+  <si>
+    <t>20127316431036402</t>
+  </si>
+  <si>
+    <t>01750959176</t>
+  </si>
+  <si>
+    <t>Bimol Chandra Roy</t>
+  </si>
+  <si>
+    <t>5524594776</t>
+  </si>
+  <si>
+    <t>Lipa Rani</t>
+  </si>
+  <si>
+    <t>4624643344</t>
   </si>
 </sst>
 </file>
@@ -527,7 +551,109 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD45726-2BF5-4B47-813F-64B697A3BAA3}">
   <sheetPr>
-    <tabColor theme="0"/>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{935672F3-E3CA-4916-8F12-300591A861CA}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -546,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -554,7 +680,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -562,7 +688,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -570,7 +696,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -578,7 +704,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -586,7 +712,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -594,7 +720,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -602,7 +728,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -618,93 +744,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{935672F3-E3CA-4916-8F12-300591A861CA}">
-  <sheetPr>
-    <tabColor theme="0"/>
-  </sheetPr>
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" style="4" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -715,7 +755,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC69193-9F6E-4D9A-8BEB-1BBAF64A53A6}">
   <sheetPr>
-    <tabColor theme="0"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
